--- a/biology/Botanique/Coincya_cheiranthos/Coincya_cheiranthos.xlsx
+++ b/biology/Botanique/Coincya_cheiranthos/Coincya_cheiranthos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coincya cheiranthos, la Moutarde giroflée, est une espèce de plantes à fleurs herbacées de la famille des Brassicaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination Coincya monensis (L.) Greuter &amp; Burdet subsp. cheiranthos (Vill.) C.Aedo Pérez, Leadlay &amp; Muñoz Garm. semble être actuellement préférée par certains auteurs.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 avril 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 avril 2020) (Attention liste brute contenant possiblement des synonymes) :
 Coincya cheiranthos subsp. cheiranthos
 Coincya cheiranthos subsp. montana Greuter &amp; Burdet
 Coincya cheiranthos subsp. nevadensis (Willk.) Greuter &amp; Burdet
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe de l'ouest. Presque toute la France de 0 à 2200 m; nul dans le Nord et le Nord-Est.
 </t>
@@ -607,7 +625,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses psammophiles (sableuses) et rocailles sur silice.
 </t>
